--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.58201533333333</v>
+        <v>13.98690533333333</v>
       </c>
       <c r="H2">
-        <v>70.74604600000001</v>
+        <v>41.960716</v>
       </c>
       <c r="I2">
-        <v>0.2808697761028737</v>
+        <v>0.1880830969574949</v>
       </c>
       <c r="J2">
-        <v>0.2808697761028737</v>
+        <v>0.188083096957495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>185.8160383713403</v>
+        <v>6.840370650095111</v>
       </c>
       <c r="R2">
-        <v>1672.344345342062</v>
+        <v>61.56333585085599</v>
       </c>
       <c r="S2">
-        <v>0.2802286288702737</v>
+        <v>0.1813963024031159</v>
       </c>
       <c r="T2">
-        <v>0.2802286288702737</v>
+        <v>0.1813963024031159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.58201533333333</v>
+        <v>13.98690533333333</v>
       </c>
       <c r="H3">
-        <v>70.74604600000001</v>
+        <v>41.960716</v>
       </c>
       <c r="I3">
-        <v>0.2808697761028737</v>
+        <v>0.1880830969574949</v>
       </c>
       <c r="J3">
-        <v>0.2808697761028737</v>
+        <v>0.188083096957495</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>0.4251365724293333</v>
+        <v>0.2521559293493333</v>
       </c>
       <c r="R3">
-        <v>3.826229151864001</v>
+        <v>2.269403364144</v>
       </c>
       <c r="S3">
-        <v>0.0006411472325999984</v>
+        <v>0.006686794554379067</v>
       </c>
       <c r="T3">
-        <v>0.0006411472325999984</v>
+        <v>0.006686794554379069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>131.51297</v>
       </c>
       <c r="I4">
-        <v>0.5221213131617836</v>
+        <v>0.5894886704907067</v>
       </c>
       <c r="J4">
-        <v>0.5221213131617836</v>
+        <v>0.5894886704907067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>345.4216943777878</v>
+        <v>21.43903979366889</v>
       </c>
       <c r="R4">
-        <v>3108.79524940009</v>
+        <v>192.95135814302</v>
       </c>
       <c r="S4">
-        <v>0.5209294560682224</v>
+        <v>0.5685309677759528</v>
       </c>
       <c r="T4">
-        <v>0.5209294560682224</v>
+        <v>0.5685309677759528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>131.51297</v>
       </c>
       <c r="I5">
-        <v>0.5221213131617836</v>
+        <v>0.5894886704907067</v>
       </c>
       <c r="J5">
-        <v>0.5221213131617836</v>
+        <v>0.5894886704907067</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>0.7903052743866666</v>
@@ -756,10 +756,10 @@
         <v>7.112747469479999</v>
       </c>
       <c r="S5">
-        <v>0.001191857093561195</v>
+        <v>0.02095770271475391</v>
       </c>
       <c r="T5">
-        <v>0.001191857093561195</v>
+        <v>0.02095770271475391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>16.54100066666667</v>
       </c>
       <c r="H6">
-        <v>49.62300199999999</v>
+        <v>49.623002</v>
       </c>
       <c r="I6">
-        <v>0.1970089107353427</v>
+        <v>0.2224282325517983</v>
       </c>
       <c r="J6">
-        <v>0.1970089107353427</v>
+        <v>0.2224282325517984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>130.3359009453771</v>
+        <v>8.089464594703555</v>
       </c>
       <c r="R6">
-        <v>1173.023108508394</v>
+        <v>72.805181352332</v>
       </c>
       <c r="S6">
-        <v>0.1965591944302703</v>
+        <v>0.2145203879967735</v>
       </c>
       <c r="T6">
-        <v>0.1965591944302703</v>
+        <v>0.2145203879967736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>16.54100066666667</v>
       </c>
       <c r="H7">
-        <v>49.62300199999999</v>
+        <v>49.623002</v>
       </c>
       <c r="I7">
-        <v>0.1970089107353427</v>
+        <v>0.2224282325517983</v>
       </c>
       <c r="J7">
-        <v>0.1970089107353427</v>
+        <v>0.2224282325517984</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
         <v>0.2982011600186666</v>
@@ -880,10 +880,10 @@
         <v>2.683810440168</v>
       </c>
       <c r="S7">
-        <v>0.0004497163050724301</v>
+        <v>0.007907844555024789</v>
       </c>
       <c r="T7">
-        <v>0.0004497163050724301</v>
+        <v>0.007907844555024791</v>
       </c>
     </row>
   </sheetData>
